--- a/financial_models/opportunities/6181.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/6181.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E062E3-BF61-694A-92DD-502B847FF3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D86001-561C-2D4D-9009-462054372313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4546,7 +4546,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.08</v>
+        <v>1.074550986289978</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4673,7 +4673,7 @@
         <v>219</v>
       </c>
       <c r="G20" s="175">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="G24" s="181">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>1.3128237633124634E-2</v>
+        <v>1.3062000645299334E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11661,17 +11661,17 @@
       </c>
       <c r="C87" s="162">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3128237633124634E-2</v>
+        <v>1.3062000645299334E-2</v>
       </c>
       <c r="D87" s="215"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3128237633124634E-2</v>
+        <v>1.3062000645299334E-2</v>
       </c>
       <c r="F87" s="215"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3128237633124634E-2</v>
+        <v>1.3062000645299334E-2</v>
       </c>
       <c r="I87" s="215"/>
       <c r="K87" s="24"/>
@@ -11780,14 +11780,14 @@
       </c>
       <c r="F93" s="145">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>40.064988109730251</v>
+        <v>40.051892841767362</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>217</v>
       </c>
       <c r="I93" s="145">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>40.064988109730251</v>
+        <v>40.051892841767362</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="C94" s="185">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="146"/>
       <c r="E94" s="87" t="s">
@@ -11855,17 +11855,17 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>5292476.6424010284</v>
+        <v>5264052.9486275613</v>
       </c>
       <c r="D97" s="219"/>
       <c r="E97" s="123">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>31.434224477886829</v>
+        <v>31.265404314674822</v>
       </c>
       <c r="F97" s="219"/>
       <c r="H97" s="123">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>31.434224477886829</v>
+        <v>31.265404314674822</v>
       </c>
       <c r="I97" s="221"/>
       <c r="K97" s="24"/>
@@ -11915,27 +11915,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>5292476.6424010284</v>
+        <v>5264052.9486275613</v>
       </c>
       <c r="D100" s="109">
         <f>F100*(1-C94)</f>
-        <v>26.719090806203805</v>
+        <v>23.449053236006115</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>31.434224477886829</v>
+        <v>31.265404314674822</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>31.434224477886829</v>
+        <v>31.265404314674822</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>31.434224477886829</v>
+        <v>31.265404314674822</v>
       </c>
       <c r="I100" s="109">
         <f>F100*1.25</f>
-        <v>39.292780597358536</v>
+        <v>39.081755393343528</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12037,27 +12037,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2646238.3212005142</v>
+        <v>2632026.4743137807</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.359545403101903</v>
+        <v>11.724526618003058</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.717112238943415</v>
+        <v>15.632702157337411</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.717112238943415</v>
+        <v>15.632702157337411</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.717112238943415</v>
+        <v>15.632702157337411</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.646390298679268</v>
+        <v>19.540877696671764</v>
       </c>
       <c r="K106" s="24"/>
     </row>
